--- a/20_営業/10_マスタ/BR100/ERP_T_BR100_CMM_HR_3_参照コード.xlsx
+++ b/20_営業/10_マスタ/BR100/ERP_T_BR100_CMM_HR_3_参照コード.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\20_実装フェーズ\10_成果物\01_セットアップ定義書\10_コンサル\HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\main\20_チェックイン\10_マスタ共通\03411\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5112" yWindow="1128" windowWidth="21600" windowHeight="13212" tabRatio="720"/>
+    <workbookView xWindow="5112" yWindow="1128" windowWidth="21600" windowHeight="13212" tabRatio="720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="48" r:id="rId1"/>
@@ -1096,14 +1096,14 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="R0008709 - 個人用ビュー" guid="{031A89B7-34D4-4502-ABB1-60F92001A7ED}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="924" activeSheetId="1"/>
     <customWorkbookView name="R0008708 - 個人用ビュー" guid="{A5DCC26B-C60D-42D0-9CAD-BC67DFA2356B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1180" tabRatio="924" activeSheetId="5"/>
-    <customWorkbookView name="R0008709 - 個人用ビュー" guid="{031A89B7-34D4-4502-ABB1-60F92001A7ED}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="924" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="1127">
   <si>
     <t>タスク名</t>
   </si>
@@ -5190,7 +5190,39 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>伊藤園　中川</t>
+    <rPh sb="0" eb="3">
+      <t>イトウエン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナカガワ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>XXCMM_POSITION_CODE（職位コード）165を追加</t>
+    <rPh sb="20" eb="22">
+      <t>ショクイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>165</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ＳⅣ相当</t>
+    <rPh sb="2" eb="4">
+      <t>ソウトウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>ＳⅣ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>XXCMM_POSITION_CODE</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -5742,7 +5774,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5985,6 +6017,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6800,7 +6838,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="43"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="42" applyFont="1" applyAlignment="1">
@@ -6962,6 +7000,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="1" xfId="45" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="32" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="33" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="34" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="35" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="36" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="29" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="30" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="2" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="31" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="5" borderId="29" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="30" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="3" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="30" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="3" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="30" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="71" fillId="43" borderId="20" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6998,57 +7087,6 @@
     <xf numFmtId="0" fontId="32" fillId="5" borderId="28" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="5" borderId="29" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="30" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="29" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="30" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="3" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="30" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="3" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="30" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="2" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="31" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="32" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="33" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="34" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="35" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="36" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7064,29 +7102,33 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="42" borderId="2" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="42" borderId="2" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="72" fillId="0" borderId="2" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="104" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="104" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="104" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="104" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="104" applyFont="1"/>
+    <xf numFmtId="49" fontId="72" fillId="44" borderId="2" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="2" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="44" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="72" fillId="0" borderId="2" xfId="104" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="72" fillId="0" borderId="2" xfId="104" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="2" xfId="104" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="72" fillId="0" borderId="2" xfId="104" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="1" xfId="104" applyFont="1"/>
+    <xf numFmtId="14" fontId="72" fillId="44" borderId="2" xfId="104" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="72" fillId="44" borderId="2" xfId="104" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="72" fillId="44" borderId="2" xfId="104" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="73" fillId="44" borderId="1" xfId="104" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="149">
     <cellStyle name="_ADFDI_TableCellStyle" xfId="31"/>
@@ -7243,6 +7285,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF66FF"/>
       <color rgb="FFD8D8D8"/>
       <color rgb="FF00FFFF"/>
     </mruColors>
@@ -15078,7 +15121,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:AK6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="10.8"/>
   <cols>
@@ -15278,1156 +15323,1240 @@
   <sheetData>
     <row r="1" spans="1:37" ht="11.4" thickBot="1"/>
     <row r="2" spans="1:37" ht="11.4" thickBot="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="82" t="s">
         <v>1099</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="63" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="82" t="s">
         <v>1100</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66" t="s">
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85" t="s">
         <v>1101</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="67"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="86"/>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="68">
+      <c r="A3" s="87">
         <v>44835</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="90" t="s">
         <v>1102</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="93" t="s">
         <v>1103</v>
       </c>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="70"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="88"/>
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="88"/>
+      <c r="AH3" s="88"/>
+      <c r="AI3" s="88"/>
+      <c r="AJ3" s="88"/>
+      <c r="AK3" s="89"/>
     </row>
     <row r="4" spans="1:37">
-      <c r="A4" s="75">
+      <c r="A4" s="73">
         <v>45089</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="68" t="s">
         <v>1113</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81" t="s">
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="79" t="s">
         <v>1114</v>
       </c>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="82"/>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="82"/>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="83"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="80"/>
+      <c r="AK4" s="81"/>
     </row>
     <row r="5" spans="1:37">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="85"/>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="85"/>
-      <c r="AF5" s="85"/>
-      <c r="AG5" s="85"/>
-      <c r="AH5" s="85"/>
-      <c r="AI5" s="85"/>
-      <c r="AJ5" s="85"/>
-      <c r="AK5" s="86"/>
+      <c r="A5" s="73">
+        <v>45603</v>
+      </c>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="68" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="76" t="s">
+        <v>1122</v>
+      </c>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="77"/>
+      <c r="AK5" s="78"/>
     </row>
     <row r="6" spans="1:37">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="85"/>
-      <c r="X6" s="85"/>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="85"/>
-      <c r="AC6" s="85"/>
-      <c r="AD6" s="85"/>
-      <c r="AE6" s="85"/>
-      <c r="AF6" s="85"/>
-      <c r="AG6" s="85"/>
-      <c r="AH6" s="85"/>
-      <c r="AI6" s="85"/>
-      <c r="AJ6" s="85"/>
-      <c r="AK6" s="86"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
+      <c r="AJ6" s="77"/>
+      <c r="AK6" s="78"/>
     </row>
     <row r="7" spans="1:37">
-      <c r="A7" s="75"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="85"/>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="85"/>
-      <c r="AF7" s="85"/>
-      <c r="AG7" s="85"/>
-      <c r="AH7" s="85"/>
-      <c r="AI7" s="85"/>
-      <c r="AJ7" s="85"/>
-      <c r="AK7" s="86"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="77"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="77"/>
+      <c r="AG7" s="77"/>
+      <c r="AH7" s="77"/>
+      <c r="AI7" s="77"/>
+      <c r="AJ7" s="77"/>
+      <c r="AK7" s="78"/>
     </row>
     <row r="8" spans="1:37">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="85"/>
-      <c r="AC8" s="85"/>
-      <c r="AD8" s="85"/>
-      <c r="AE8" s="85"/>
-      <c r="AF8" s="85"/>
-      <c r="AG8" s="85"/>
-      <c r="AH8" s="85"/>
-      <c r="AI8" s="85"/>
-      <c r="AJ8" s="85"/>
-      <c r="AK8" s="86"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="77"/>
+      <c r="AI8" s="77"/>
+      <c r="AJ8" s="77"/>
+      <c r="AK8" s="78"/>
     </row>
     <row r="9" spans="1:37">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="85"/>
-      <c r="X9" s="85"/>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="85"/>
-      <c r="AA9" s="85"/>
-      <c r="AB9" s="85"/>
-      <c r="AC9" s="85"/>
-      <c r="AD9" s="85"/>
-      <c r="AE9" s="85"/>
-      <c r="AF9" s="85"/>
-      <c r="AG9" s="85"/>
-      <c r="AH9" s="85"/>
-      <c r="AI9" s="85"/>
-      <c r="AJ9" s="85"/>
-      <c r="AK9" s="86"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="77"/>
+      <c r="AK9" s="78"/>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" s="75"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="85"/>
-      <c r="AC10" s="85"/>
-      <c r="AD10" s="85"/>
-      <c r="AE10" s="85"/>
-      <c r="AF10" s="85"/>
-      <c r="AG10" s="85"/>
-      <c r="AH10" s="85"/>
-      <c r="AI10" s="85"/>
-      <c r="AJ10" s="85"/>
-      <c r="AK10" s="86"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="77"/>
+      <c r="AK10" s="78"/>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" s="78"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="87"/>
-      <c r="AD11" s="87"/>
-      <c r="AE11" s="87"/>
-      <c r="AF11" s="87"/>
-      <c r="AG11" s="87"/>
-      <c r="AH11" s="87"/>
-      <c r="AI11" s="87"/>
-      <c r="AJ11" s="87"/>
-      <c r="AK11" s="88"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="71"/>
+      <c r="AF11" s="71"/>
+      <c r="AG11" s="71"/>
+      <c r="AH11" s="71"/>
+      <c r="AI11" s="71"/>
+      <c r="AJ11" s="71"/>
+      <c r="AK11" s="72"/>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" s="78"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="87"/>
-      <c r="AA12" s="87"/>
-      <c r="AB12" s="87"/>
-      <c r="AC12" s="87"/>
-      <c r="AD12" s="87"/>
-      <c r="AE12" s="87"/>
-      <c r="AF12" s="87"/>
-      <c r="AG12" s="87"/>
-      <c r="AH12" s="87"/>
-      <c r="AI12" s="87"/>
-      <c r="AJ12" s="87"/>
-      <c r="AK12" s="88"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="71"/>
+      <c r="AH12" s="71"/>
+      <c r="AI12" s="71"/>
+      <c r="AJ12" s="71"/>
+      <c r="AK12" s="72"/>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="87"/>
-      <c r="AC13" s="87"/>
-      <c r="AD13" s="87"/>
-      <c r="AE13" s="87"/>
-      <c r="AF13" s="87"/>
-      <c r="AG13" s="87"/>
-      <c r="AH13" s="87"/>
-      <c r="AI13" s="87"/>
-      <c r="AJ13" s="87"/>
-      <c r="AK13" s="88"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="71"/>
+      <c r="AF13" s="71"/>
+      <c r="AG13" s="71"/>
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="71"/>
+      <c r="AK13" s="72"/>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="78"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="87"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="87"/>
-      <c r="AB14" s="87"/>
-      <c r="AC14" s="87"/>
-      <c r="AD14" s="87"/>
-      <c r="AE14" s="87"/>
-      <c r="AF14" s="87"/>
-      <c r="AG14" s="87"/>
-      <c r="AH14" s="87"/>
-      <c r="AI14" s="87"/>
-      <c r="AJ14" s="87"/>
-      <c r="AK14" s="88"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="71"/>
+      <c r="AF14" s="71"/>
+      <c r="AG14" s="71"/>
+      <c r="AH14" s="71"/>
+      <c r="AI14" s="71"/>
+      <c r="AJ14" s="71"/>
+      <c r="AK14" s="72"/>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" s="78"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="87"/>
-      <c r="AE15" s="87"/>
-      <c r="AF15" s="87"/>
-      <c r="AG15" s="87"/>
-      <c r="AH15" s="87"/>
-      <c r="AI15" s="87"/>
-      <c r="AJ15" s="87"/>
-      <c r="AK15" s="88"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="71"/>
+      <c r="AF15" s="71"/>
+      <c r="AG15" s="71"/>
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="71"/>
+      <c r="AK15" s="72"/>
     </row>
     <row r="16" spans="1:37">
-      <c r="A16" s="78"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="87"/>
-      <c r="AB16" s="87"/>
-      <c r="AC16" s="87"/>
-      <c r="AD16" s="87"/>
-      <c r="AE16" s="87"/>
-      <c r="AF16" s="87"/>
-      <c r="AG16" s="87"/>
-      <c r="AH16" s="87"/>
-      <c r="AI16" s="87"/>
-      <c r="AJ16" s="87"/>
-      <c r="AK16" s="88"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="71"/>
+      <c r="AG16" s="71"/>
+      <c r="AH16" s="71"/>
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="71"/>
+      <c r="AK16" s="72"/>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="78"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="87"/>
-      <c r="AB17" s="87"/>
-      <c r="AC17" s="87"/>
-      <c r="AD17" s="87"/>
-      <c r="AE17" s="87"/>
-      <c r="AF17" s="87"/>
-      <c r="AG17" s="87"/>
-      <c r="AH17" s="87"/>
-      <c r="AI17" s="87"/>
-      <c r="AJ17" s="87"/>
-      <c r="AK17" s="88"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="71"/>
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="71"/>
+      <c r="AK17" s="72"/>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="87"/>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="87"/>
-      <c r="AC18" s="87"/>
-      <c r="AD18" s="87"/>
-      <c r="AE18" s="87"/>
-      <c r="AF18" s="87"/>
-      <c r="AG18" s="87"/>
-      <c r="AH18" s="87"/>
-      <c r="AI18" s="87"/>
-      <c r="AJ18" s="87"/>
-      <c r="AK18" s="88"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="71"/>
+      <c r="AE18" s="71"/>
+      <c r="AF18" s="71"/>
+      <c r="AG18" s="71"/>
+      <c r="AH18" s="71"/>
+      <c r="AI18" s="71"/>
+      <c r="AJ18" s="71"/>
+      <c r="AK18" s="72"/>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="78"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="87"/>
-      <c r="Y19" s="87"/>
-      <c r="Z19" s="87"/>
-      <c r="AA19" s="87"/>
-      <c r="AB19" s="87"/>
-      <c r="AC19" s="87"/>
-      <c r="AD19" s="87"/>
-      <c r="AE19" s="87"/>
-      <c r="AF19" s="87"/>
-      <c r="AG19" s="87"/>
-      <c r="AH19" s="87"/>
-      <c r="AI19" s="87"/>
-      <c r="AJ19" s="87"/>
-      <c r="AK19" s="88"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="71"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="71"/>
+      <c r="AD19" s="71"/>
+      <c r="AE19" s="71"/>
+      <c r="AF19" s="71"/>
+      <c r="AG19" s="71"/>
+      <c r="AH19" s="71"/>
+      <c r="AI19" s="71"/>
+      <c r="AJ19" s="71"/>
+      <c r="AK19" s="72"/>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="87"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="87"/>
-      <c r="U20" s="87"/>
-      <c r="V20" s="87"/>
-      <c r="W20" s="87"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="87"/>
-      <c r="AA20" s="87"/>
-      <c r="AB20" s="87"/>
-      <c r="AC20" s="87"/>
-      <c r="AD20" s="87"/>
-      <c r="AE20" s="87"/>
-      <c r="AF20" s="87"/>
-      <c r="AG20" s="87"/>
-      <c r="AH20" s="87"/>
-      <c r="AI20" s="87"/>
-      <c r="AJ20" s="87"/>
-      <c r="AK20" s="88"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="71"/>
+      <c r="AH20" s="71"/>
+      <c r="AI20" s="71"/>
+      <c r="AJ20" s="71"/>
+      <c r="AK20" s="72"/>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="78"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="87"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="87"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="87"/>
-      <c r="AA21" s="87"/>
-      <c r="AB21" s="87"/>
-      <c r="AC21" s="87"/>
-      <c r="AD21" s="87"/>
-      <c r="AE21" s="87"/>
-      <c r="AF21" s="87"/>
-      <c r="AG21" s="87"/>
-      <c r="AH21" s="87"/>
-      <c r="AI21" s="87"/>
-      <c r="AJ21" s="87"/>
-      <c r="AK21" s="88"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="71"/>
+      <c r="AE21" s="71"/>
+      <c r="AF21" s="71"/>
+      <c r="AG21" s="71"/>
+      <c r="AH21" s="71"/>
+      <c r="AI21" s="71"/>
+      <c r="AJ21" s="71"/>
+      <c r="AK21" s="72"/>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="78"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="87"/>
-      <c r="U22" s="87"/>
-      <c r="V22" s="87"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="87"/>
-      <c r="Y22" s="87"/>
-      <c r="Z22" s="87"/>
-      <c r="AA22" s="87"/>
-      <c r="AB22" s="87"/>
-      <c r="AC22" s="87"/>
-      <c r="AD22" s="87"/>
-      <c r="AE22" s="87"/>
-      <c r="AF22" s="87"/>
-      <c r="AG22" s="87"/>
-      <c r="AH22" s="87"/>
-      <c r="AI22" s="87"/>
-      <c r="AJ22" s="87"/>
-      <c r="AK22" s="88"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="71"/>
+      <c r="AE22" s="71"/>
+      <c r="AF22" s="71"/>
+      <c r="AG22" s="71"/>
+      <c r="AH22" s="71"/>
+      <c r="AI22" s="71"/>
+      <c r="AJ22" s="71"/>
+      <c r="AK22" s="72"/>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="78"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="87"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="87"/>
-      <c r="V23" s="87"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="87"/>
-      <c r="Y23" s="87"/>
-      <c r="Z23" s="87"/>
-      <c r="AA23" s="87"/>
-      <c r="AB23" s="87"/>
-      <c r="AC23" s="87"/>
-      <c r="AD23" s="87"/>
-      <c r="AE23" s="87"/>
-      <c r="AF23" s="87"/>
-      <c r="AG23" s="87"/>
-      <c r="AH23" s="87"/>
-      <c r="AI23" s="87"/>
-      <c r="AJ23" s="87"/>
-      <c r="AK23" s="88"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="71"/>
+      <c r="AE23" s="71"/>
+      <c r="AF23" s="71"/>
+      <c r="AG23" s="71"/>
+      <c r="AH23" s="71"/>
+      <c r="AI23" s="71"/>
+      <c r="AJ23" s="71"/>
+      <c r="AK23" s="72"/>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="78"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="87"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="87"/>
-      <c r="AA24" s="87"/>
-      <c r="AB24" s="87"/>
-      <c r="AC24" s="87"/>
-      <c r="AD24" s="87"/>
-      <c r="AE24" s="87"/>
-      <c r="AF24" s="87"/>
-      <c r="AG24" s="87"/>
-      <c r="AH24" s="87"/>
-      <c r="AI24" s="87"/>
-      <c r="AJ24" s="87"/>
-      <c r="AK24" s="88"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="71"/>
+      <c r="AE24" s="71"/>
+      <c r="AF24" s="71"/>
+      <c r="AG24" s="71"/>
+      <c r="AH24" s="71"/>
+      <c r="AI24" s="71"/>
+      <c r="AJ24" s="71"/>
+      <c r="AK24" s="72"/>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="78"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="87"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="87"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="87"/>
-      <c r="Y25" s="87"/>
-      <c r="Z25" s="87"/>
-      <c r="AA25" s="87"/>
-      <c r="AB25" s="87"/>
-      <c r="AC25" s="87"/>
-      <c r="AD25" s="87"/>
-      <c r="AE25" s="87"/>
-      <c r="AF25" s="87"/>
-      <c r="AG25" s="87"/>
-      <c r="AH25" s="87"/>
-      <c r="AI25" s="87"/>
-      <c r="AJ25" s="87"/>
-      <c r="AK25" s="88"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="71"/>
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="71"/>
+      <c r="AC25" s="71"/>
+      <c r="AD25" s="71"/>
+      <c r="AE25" s="71"/>
+      <c r="AF25" s="71"/>
+      <c r="AG25" s="71"/>
+      <c r="AH25" s="71"/>
+      <c r="AI25" s="71"/>
+      <c r="AJ25" s="71"/>
+      <c r="AK25" s="72"/>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="78"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="87"/>
-      <c r="AC26" s="87"/>
-      <c r="AD26" s="87"/>
-      <c r="AE26" s="87"/>
-      <c r="AF26" s="87"/>
-      <c r="AG26" s="87"/>
-      <c r="AH26" s="87"/>
-      <c r="AI26" s="87"/>
-      <c r="AJ26" s="87"/>
-      <c r="AK26" s="88"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="71"/>
+      <c r="Y26" s="71"/>
+      <c r="Z26" s="71"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="71"/>
+      <c r="AC26" s="71"/>
+      <c r="AD26" s="71"/>
+      <c r="AE26" s="71"/>
+      <c r="AF26" s="71"/>
+      <c r="AG26" s="71"/>
+      <c r="AH26" s="71"/>
+      <c r="AI26" s="71"/>
+      <c r="AJ26" s="71"/>
+      <c r="AK26" s="72"/>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="78"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="87"/>
-      <c r="U27" s="87"/>
-      <c r="V27" s="87"/>
-      <c r="W27" s="87"/>
-      <c r="X27" s="87"/>
-      <c r="Y27" s="87"/>
-      <c r="Z27" s="87"/>
-      <c r="AA27" s="87"/>
-      <c r="AB27" s="87"/>
-      <c r="AC27" s="87"/>
-      <c r="AD27" s="87"/>
-      <c r="AE27" s="87"/>
-      <c r="AF27" s="87"/>
-      <c r="AG27" s="87"/>
-      <c r="AH27" s="87"/>
-      <c r="AI27" s="87"/>
-      <c r="AJ27" s="87"/>
-      <c r="AK27" s="88"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="71"/>
+      <c r="Z27" s="71"/>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="71"/>
+      <c r="AC27" s="71"/>
+      <c r="AD27" s="71"/>
+      <c r="AE27" s="71"/>
+      <c r="AF27" s="71"/>
+      <c r="AG27" s="71"/>
+      <c r="AH27" s="71"/>
+      <c r="AI27" s="71"/>
+      <c r="AJ27" s="71"/>
+      <c r="AK27" s="72"/>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="78"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="87"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="87"/>
-      <c r="U28" s="87"/>
-      <c r="V28" s="87"/>
-      <c r="W28" s="87"/>
-      <c r="X28" s="87"/>
-      <c r="Y28" s="87"/>
-      <c r="Z28" s="87"/>
-      <c r="AA28" s="87"/>
-      <c r="AB28" s="87"/>
-      <c r="AC28" s="87"/>
-      <c r="AD28" s="87"/>
-      <c r="AE28" s="87"/>
-      <c r="AF28" s="87"/>
-      <c r="AG28" s="87"/>
-      <c r="AH28" s="87"/>
-      <c r="AI28" s="87"/>
-      <c r="AJ28" s="87"/>
-      <c r="AK28" s="88"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="71"/>
+      <c r="Z28" s="71"/>
+      <c r="AA28" s="71"/>
+      <c r="AB28" s="71"/>
+      <c r="AC28" s="71"/>
+      <c r="AD28" s="71"/>
+      <c r="AE28" s="71"/>
+      <c r="AF28" s="71"/>
+      <c r="AG28" s="71"/>
+      <c r="AH28" s="71"/>
+      <c r="AI28" s="71"/>
+      <c r="AJ28" s="71"/>
+      <c r="AK28" s="72"/>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="78"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="87"/>
-      <c r="R29" s="87"/>
-      <c r="S29" s="87"/>
-      <c r="T29" s="87"/>
-      <c r="U29" s="87"/>
-      <c r="V29" s="87"/>
-      <c r="W29" s="87"/>
-      <c r="X29" s="87"/>
-      <c r="Y29" s="87"/>
-      <c r="Z29" s="87"/>
-      <c r="AA29" s="87"/>
-      <c r="AB29" s="87"/>
-      <c r="AC29" s="87"/>
-      <c r="AD29" s="87"/>
-      <c r="AE29" s="87"/>
-      <c r="AF29" s="87"/>
-      <c r="AG29" s="87"/>
-      <c r="AH29" s="87"/>
-      <c r="AI29" s="87"/>
-      <c r="AJ29" s="87"/>
-      <c r="AK29" s="88"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="71"/>
+      <c r="AC29" s="71"/>
+      <c r="AD29" s="71"/>
+      <c r="AE29" s="71"/>
+      <c r="AF29" s="71"/>
+      <c r="AG29" s="71"/>
+      <c r="AH29" s="71"/>
+      <c r="AI29" s="71"/>
+      <c r="AJ29" s="71"/>
+      <c r="AK29" s="72"/>
     </row>
     <row r="30" spans="1:37" ht="11.4" thickBot="1">
-      <c r="A30" s="89"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="92"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="92"/>
-      <c r="U30" s="92"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="92"/>
-      <c r="Z30" s="92"/>
-      <c r="AA30" s="92"/>
-      <c r="AB30" s="92"/>
-      <c r="AC30" s="92"/>
-      <c r="AD30" s="92"/>
-      <c r="AE30" s="92"/>
-      <c r="AF30" s="92"/>
-      <c r="AG30" s="92"/>
-      <c r="AH30" s="92"/>
-      <c r="AI30" s="92"/>
-      <c r="AJ30" s="92"/>
-      <c r="AK30" s="93"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="66"/>
+      <c r="AC30" s="66"/>
+      <c r="AD30" s="66"/>
+      <c r="AE30" s="66"/>
+      <c r="AF30" s="66"/>
+      <c r="AG30" s="66"/>
+      <c r="AH30" s="66"/>
+      <c r="AI30" s="66"/>
+      <c r="AJ30" s="66"/>
+      <c r="AK30" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:AK2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:AK3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:AK4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:AK5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:AK6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:AK7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:AK8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:AK9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:AK10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:AK11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:AK12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:AK13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:AK14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:AK15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:AK16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:AK17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:AK18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:AK19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:AK20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:AK21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:AK22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AK23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AK24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AK25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AK26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AK27"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="J30:AK30"/>
@@ -16437,84 +16566,6 @@
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="J29:AK29"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AK26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AK27"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AK24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AK25"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:AK22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AK23"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:AK20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:AK21"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:AK18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:AK19"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:AK16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:AK17"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:AK14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:AK15"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:AK12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:AK13"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:AK10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:AK11"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:AK8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:AK9"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:AK6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:AK7"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:AK4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:AK5"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:AK2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:AK3"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -16525,10 +16576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X492"/>
+  <dimension ref="A1:X493"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A409" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G423" sqref="G423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="14.4"/>
@@ -31679,114 +31730,114 @@
       <c r="W420" s="10"/>
       <c r="X420" s="10"/>
     </row>
-    <row r="421" spans="1:24" s="109" customFormat="1" ht="15">
-      <c r="A421" s="103" t="s">
+    <row r="421" spans="1:24" s="107" customFormat="1" ht="15">
+      <c r="A421" s="37" t="s">
         <v>1115</v>
       </c>
-      <c r="B421" s="103" t="s">
+      <c r="B421" s="37" t="s">
         <v>1116</v>
       </c>
-      <c r="C421" s="104"/>
-      <c r="D421" s="104" t="s">
+      <c r="C421" s="8"/>
+      <c r="D421" s="8" t="s">
         <v>1117</v>
       </c>
-      <c r="E421" s="105"/>
-      <c r="F421" s="106"/>
-      <c r="G421" s="104" t="s">
+      <c r="E421" s="103"/>
+      <c r="F421" s="104"/>
+      <c r="G421" s="8" t="s">
         <v>1118</v>
       </c>
-      <c r="H421" s="104"/>
-      <c r="I421" s="107"/>
-      <c r="J421" s="108"/>
-      <c r="K421" s="108"/>
-      <c r="L421" s="108"/>
-      <c r="M421" s="108"/>
-      <c r="N421" s="108"/>
-      <c r="O421" s="108"/>
-      <c r="P421" s="108"/>
-      <c r="Q421" s="108"/>
-      <c r="R421" s="108"/>
-      <c r="S421" s="108"/>
-      <c r="T421" s="108"/>
-      <c r="U421" s="108"/>
-      <c r="V421" s="108"/>
-      <c r="W421" s="108"/>
-      <c r="X421" s="108"/>
-    </row>
-    <row r="422" spans="1:24" s="109" customFormat="1" ht="15">
-      <c r="A422" s="103" t="s">
+      <c r="H421" s="8"/>
+      <c r="I421" s="105"/>
+      <c r="J421" s="106"/>
+      <c r="K421" s="106"/>
+      <c r="L421" s="106"/>
+      <c r="M421" s="106"/>
+      <c r="N421" s="106"/>
+      <c r="O421" s="106"/>
+      <c r="P421" s="106"/>
+      <c r="Q421" s="106"/>
+      <c r="R421" s="106"/>
+      <c r="S421" s="106"/>
+      <c r="T421" s="106"/>
+      <c r="U421" s="106"/>
+      <c r="V421" s="106"/>
+      <c r="W421" s="106"/>
+      <c r="X421" s="106"/>
+    </row>
+    <row r="422" spans="1:24" s="107" customFormat="1" ht="15">
+      <c r="A422" s="37" t="s">
         <v>1115</v>
       </c>
-      <c r="B422" s="103" t="s">
+      <c r="B422" s="37" t="s">
         <v>1119</v>
       </c>
-      <c r="C422" s="104"/>
-      <c r="D422" s="104" t="s">
+      <c r="C422" s="8"/>
+      <c r="D422" s="8" t="s">
         <v>1120</v>
       </c>
-      <c r="E422" s="105"/>
-      <c r="F422" s="106"/>
-      <c r="G422" s="104" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H422" s="104"/>
-      <c r="I422" s="107"/>
-      <c r="J422" s="108"/>
-      <c r="K422" s="108"/>
-      <c r="L422" s="108"/>
-      <c r="M422" s="108"/>
-      <c r="N422" s="108"/>
-      <c r="O422" s="108"/>
-      <c r="P422" s="108"/>
-      <c r="Q422" s="108"/>
-      <c r="R422" s="108"/>
-      <c r="S422" s="108"/>
-      <c r="T422" s="108"/>
-      <c r="U422" s="108"/>
-      <c r="V422" s="108"/>
-      <c r="W422" s="108"/>
-      <c r="X422" s="108"/>
-    </row>
-    <row r="423" spans="1:24" ht="15">
-      <c r="A423" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="B423" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="C423" s="8"/>
-      <c r="D423" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E423" s="42"/>
-      <c r="F423" s="13"/>
-      <c r="G423" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H423" s="38"/>
-      <c r="I423" s="9"/>
-      <c r="J423" s="10"/>
-      <c r="K423" s="10"/>
-      <c r="L423" s="10"/>
-      <c r="M423" s="10"/>
-      <c r="N423" s="10"/>
-      <c r="O423" s="10"/>
-      <c r="P423" s="10"/>
-      <c r="Q423" s="10"/>
-      <c r="R423" s="10"/>
-      <c r="S423" s="10"/>
-      <c r="T423" s="10"/>
-      <c r="U423" s="10"/>
-      <c r="V423" s="10"/>
-      <c r="W423" s="10"/>
-      <c r="X423" s="10"/>
+      <c r="E422" s="103"/>
+      <c r="F422" s="104"/>
+      <c r="G422" s="8" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H422" s="8"/>
+      <c r="I422" s="105"/>
+      <c r="J422" s="106"/>
+      <c r="K422" s="106"/>
+      <c r="L422" s="106"/>
+      <c r="M422" s="106"/>
+      <c r="N422" s="106"/>
+      <c r="O422" s="106"/>
+      <c r="P422" s="106"/>
+      <c r="Q422" s="106"/>
+      <c r="R422" s="106"/>
+      <c r="S422" s="106"/>
+      <c r="T422" s="106"/>
+      <c r="U422" s="106"/>
+      <c r="V422" s="106"/>
+      <c r="W422" s="106"/>
+      <c r="X422" s="106"/>
+    </row>
+    <row r="423" spans="1:24" s="113" customFormat="1" ht="15">
+      <c r="A423" s="108" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B423" s="108" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C423" s="109"/>
+      <c r="D423" s="109" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E423" s="110"/>
+      <c r="F423" s="110"/>
+      <c r="G423" s="109" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H423" s="109"/>
+      <c r="I423" s="111"/>
+      <c r="J423" s="112"/>
+      <c r="K423" s="112"/>
+      <c r="L423" s="112"/>
+      <c r="M423" s="112"/>
+      <c r="N423" s="112"/>
+      <c r="O423" s="112"/>
+      <c r="P423" s="112"/>
+      <c r="Q423" s="112"/>
+      <c r="R423" s="112"/>
+      <c r="S423" s="112"/>
+      <c r="T423" s="112"/>
+      <c r="U423" s="112"/>
+      <c r="V423" s="112"/>
+      <c r="W423" s="112"/>
+      <c r="X423" s="112"/>
     </row>
     <row r="424" spans="1:24" ht="15">
       <c r="A424" s="37" t="s">
         <v>161</v>
       </c>
       <c r="B424" s="37" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="C424" s="8"/>
       <c r="D424" s="8" t="s">
@@ -31795,7 +31846,7 @@
       <c r="E424" s="42"/>
       <c r="F424" s="13"/>
       <c r="G424" s="8" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="H424" s="38"/>
       <c r="I424" s="9"/>
@@ -31820,7 +31871,7 @@
         <v>161</v>
       </c>
       <c r="B425" s="37" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C425" s="8"/>
       <c r="D425" s="8" t="s">
@@ -31829,7 +31880,7 @@
       <c r="E425" s="42"/>
       <c r="F425" s="13"/>
       <c r="G425" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H425" s="38"/>
       <c r="I425" s="9"/>
@@ -31854,7 +31905,7 @@
         <v>161</v>
       </c>
       <c r="B426" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C426" s="8"/>
       <c r="D426" s="8" t="s">
@@ -31863,7 +31914,7 @@
       <c r="E426" s="42"/>
       <c r="F426" s="13"/>
       <c r="G426" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H426" s="38"/>
       <c r="I426" s="9"/>
@@ -31888,7 +31939,7 @@
         <v>161</v>
       </c>
       <c r="B427" s="37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C427" s="8"/>
       <c r="D427" s="8" t="s">
@@ -31897,7 +31948,7 @@
       <c r="E427" s="42"/>
       <c r="F427" s="13"/>
       <c r="G427" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H427" s="38"/>
       <c r="I427" s="9"/>
@@ -31922,7 +31973,7 @@
         <v>161</v>
       </c>
       <c r="B428" s="37" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="C428" s="8"/>
       <c r="D428" s="8" t="s">
@@ -31931,7 +31982,7 @@
       <c r="E428" s="42"/>
       <c r="F428" s="13"/>
       <c r="G428" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H428" s="38"/>
       <c r="I428" s="9"/>
@@ -31956,7 +32007,7 @@
         <v>161</v>
       </c>
       <c r="B429" s="37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C429" s="8"/>
       <c r="D429" s="8" t="s">
@@ -31965,7 +32016,7 @@
       <c r="E429" s="42"/>
       <c r="F429" s="13"/>
       <c r="G429" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H429" s="38"/>
       <c r="I429" s="9"/>
@@ -31990,7 +32041,7 @@
         <v>161</v>
       </c>
       <c r="B430" s="37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C430" s="8"/>
       <c r="D430" s="8" t="s">
@@ -31999,7 +32050,7 @@
       <c r="E430" s="42"/>
       <c r="F430" s="13"/>
       <c r="G430" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H430" s="38"/>
       <c r="I430" s="9"/>
@@ -32024,7 +32075,7 @@
         <v>161</v>
       </c>
       <c r="B431" s="37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C431" s="8"/>
       <c r="D431" s="8" t="s">
@@ -32033,7 +32084,7 @@
       <c r="E431" s="42"/>
       <c r="F431" s="13"/>
       <c r="G431" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H431" s="38"/>
       <c r="I431" s="9"/>
@@ -32058,7 +32109,7 @@
         <v>161</v>
       </c>
       <c r="B432" s="37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C432" s="8"/>
       <c r="D432" s="8" t="s">
@@ -32067,7 +32118,7 @@
       <c r="E432" s="42"/>
       <c r="F432" s="13"/>
       <c r="G432" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H432" s="38"/>
       <c r="I432" s="9"/>
@@ -32092,7 +32143,7 @@
         <v>161</v>
       </c>
       <c r="B433" s="37" t="s">
-        <v>877</v>
+        <v>206</v>
       </c>
       <c r="C433" s="8"/>
       <c r="D433" s="8" t="s">
@@ -32101,9 +32152,9 @@
       <c r="E433" s="42"/>
       <c r="F433" s="13"/>
       <c r="G433" s="8" t="s">
-        <v>893</v>
-      </c>
-      <c r="H433" s="8"/>
+        <v>207</v>
+      </c>
+      <c r="H433" s="38"/>
       <c r="I433" s="9"/>
       <c r="J433" s="10"/>
       <c r="K433" s="10"/>
@@ -32126,7 +32177,7 @@
         <v>161</v>
       </c>
       <c r="B434" s="37" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C434" s="8"/>
       <c r="D434" s="8" t="s">
@@ -32135,7 +32186,7 @@
       <c r="E434" s="42"/>
       <c r="F434" s="13"/>
       <c r="G434" s="8" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H434" s="8"/>
       <c r="I434" s="9"/>
@@ -32160,7 +32211,7 @@
         <v>161</v>
       </c>
       <c r="B435" s="37" t="s">
-        <v>814</v>
+        <v>878</v>
       </c>
       <c r="C435" s="8"/>
       <c r="D435" s="8" t="s">
@@ -32169,7 +32220,7 @@
       <c r="E435" s="42"/>
       <c r="F435" s="13"/>
       <c r="G435" s="8" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H435" s="8"/>
       <c r="I435" s="9"/>
@@ -32194,7 +32245,7 @@
         <v>161</v>
       </c>
       <c r="B436" s="37" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="C436" s="8"/>
       <c r="D436" s="8" t="s">
@@ -32203,7 +32254,7 @@
       <c r="E436" s="42"/>
       <c r="F436" s="13"/>
       <c r="G436" s="8" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H436" s="8"/>
       <c r="I436" s="9"/>
@@ -32228,7 +32279,7 @@
         <v>161</v>
       </c>
       <c r="B437" s="37" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="C437" s="8"/>
       <c r="D437" s="8" t="s">
@@ -32237,7 +32288,7 @@
       <c r="E437" s="42"/>
       <c r="F437" s="13"/>
       <c r="G437" s="8" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H437" s="8"/>
       <c r="I437" s="9"/>
@@ -32262,7 +32313,7 @@
         <v>161</v>
       </c>
       <c r="B438" s="37" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C438" s="8"/>
       <c r="D438" s="8" t="s">
@@ -32271,7 +32322,7 @@
       <c r="E438" s="42"/>
       <c r="F438" s="13"/>
       <c r="G438" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H438" s="8"/>
       <c r="I438" s="9"/>
@@ -32296,7 +32347,7 @@
         <v>161</v>
       </c>
       <c r="B439" s="37" t="s">
-        <v>879</v>
+        <v>834</v>
       </c>
       <c r="C439" s="8"/>
       <c r="D439" s="8" t="s">
@@ -32305,7 +32356,7 @@
       <c r="E439" s="42"/>
       <c r="F439" s="13"/>
       <c r="G439" s="8" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H439" s="8"/>
       <c r="I439" s="9"/>
@@ -32330,7 +32381,7 @@
         <v>161</v>
       </c>
       <c r="B440" s="37" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C440" s="8"/>
       <c r="D440" s="8" t="s">
@@ -32339,7 +32390,7 @@
       <c r="E440" s="42"/>
       <c r="F440" s="13"/>
       <c r="G440" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H440" s="8"/>
       <c r="I440" s="9"/>
@@ -32364,7 +32415,7 @@
         <v>161</v>
       </c>
       <c r="B441" s="37" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C441" s="8"/>
       <c r="D441" s="8" t="s">
@@ -32373,7 +32424,7 @@
       <c r="E441" s="42"/>
       <c r="F441" s="13"/>
       <c r="G441" s="8" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H441" s="8"/>
       <c r="I441" s="9"/>
@@ -32398,7 +32449,7 @@
         <v>161</v>
       </c>
       <c r="B442" s="37" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C442" s="8"/>
       <c r="D442" s="8" t="s">
@@ -32407,7 +32458,7 @@
       <c r="E442" s="42"/>
       <c r="F442" s="13"/>
       <c r="G442" s="8" t="s">
-        <v>174</v>
+        <v>901</v>
       </c>
       <c r="H442" s="8"/>
       <c r="I442" s="9"/>
@@ -32432,7 +32483,7 @@
         <v>161</v>
       </c>
       <c r="B443" s="37" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C443" s="8"/>
       <c r="D443" s="8" t="s">
@@ -32441,7 +32492,7 @@
       <c r="E443" s="42"/>
       <c r="F443" s="13"/>
       <c r="G443" s="8" t="s">
-        <v>902</v>
+        <v>174</v>
       </c>
       <c r="H443" s="8"/>
       <c r="I443" s="9"/>
@@ -32466,7 +32517,7 @@
         <v>161</v>
       </c>
       <c r="B444" s="37" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C444" s="8"/>
       <c r="D444" s="8" t="s">
@@ -32475,7 +32526,7 @@
       <c r="E444" s="42"/>
       <c r="F444" s="13"/>
       <c r="G444" s="8" t="s">
-        <v>178</v>
+        <v>902</v>
       </c>
       <c r="H444" s="8"/>
       <c r="I444" s="9"/>
@@ -32500,7 +32551,7 @@
         <v>161</v>
       </c>
       <c r="B445" s="37" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C445" s="8"/>
       <c r="D445" s="8" t="s">
@@ -32509,7 +32560,7 @@
       <c r="E445" s="42"/>
       <c r="F445" s="13"/>
       <c r="G445" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H445" s="8"/>
       <c r="I445" s="9"/>
@@ -32534,7 +32585,7 @@
         <v>161</v>
       </c>
       <c r="B446" s="37" t="s">
-        <v>787</v>
+        <v>885</v>
       </c>
       <c r="C446" s="8"/>
       <c r="D446" s="8" t="s">
@@ -32543,7 +32594,7 @@
       <c r="E446" s="42"/>
       <c r="F446" s="13"/>
       <c r="G446" s="8" t="s">
-        <v>903</v>
+        <v>179</v>
       </c>
       <c r="H446" s="8"/>
       <c r="I446" s="9"/>
@@ -32568,7 +32619,7 @@
         <v>161</v>
       </c>
       <c r="B447" s="37" t="s">
-        <v>886</v>
+        <v>787</v>
       </c>
       <c r="C447" s="8"/>
       <c r="D447" s="8" t="s">
@@ -32577,7 +32628,7 @@
       <c r="E447" s="42"/>
       <c r="F447" s="13"/>
       <c r="G447" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H447" s="8"/>
       <c r="I447" s="9"/>
@@ -32602,7 +32653,7 @@
         <v>161</v>
       </c>
       <c r="B448" s="37" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C448" s="8"/>
       <c r="D448" s="8" t="s">
@@ -32611,7 +32662,7 @@
       <c r="E448" s="42"/>
       <c r="F448" s="13"/>
       <c r="G448" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H448" s="8"/>
       <c r="I448" s="9"/>
@@ -32636,7 +32687,7 @@
         <v>161</v>
       </c>
       <c r="B449" s="37" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C449" s="8"/>
       <c r="D449" s="8" t="s">
@@ -32645,7 +32696,7 @@
       <c r="E449" s="42"/>
       <c r="F449" s="13"/>
       <c r="G449" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H449" s="8"/>
       <c r="I449" s="9"/>
@@ -32670,7 +32721,7 @@
         <v>161</v>
       </c>
       <c r="B450" s="37" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C450" s="8"/>
       <c r="D450" s="8" t="s">
@@ -32679,7 +32730,7 @@
       <c r="E450" s="42"/>
       <c r="F450" s="13"/>
       <c r="G450" s="8" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H450" s="8"/>
       <c r="I450" s="9"/>
@@ -32704,7 +32755,7 @@
         <v>161</v>
       </c>
       <c r="B451" s="37" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C451" s="8"/>
       <c r="D451" s="8" t="s">
@@ -32713,7 +32764,7 @@
       <c r="E451" s="42"/>
       <c r="F451" s="13"/>
       <c r="G451" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H451" s="8"/>
       <c r="I451" s="9"/>
@@ -32738,7 +32789,7 @@
         <v>161</v>
       </c>
       <c r="B452" s="37" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C452" s="8"/>
       <c r="D452" s="8" t="s">
@@ -32747,7 +32798,7 @@
       <c r="E452" s="42"/>
       <c r="F452" s="13"/>
       <c r="G452" s="8" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H452" s="8"/>
       <c r="I452" s="9"/>
@@ -32772,7 +32823,7 @@
         <v>161</v>
       </c>
       <c r="B453" s="37" t="s">
-        <v>956</v>
+        <v>891</v>
       </c>
       <c r="C453" s="8"/>
       <c r="D453" s="8" t="s">
@@ -32781,7 +32832,7 @@
       <c r="E453" s="42"/>
       <c r="F453" s="13"/>
       <c r="G453" s="8" t="s">
-        <v>957</v>
+        <v>909</v>
       </c>
       <c r="H453" s="8"/>
       <c r="I453" s="9"/>
@@ -32806,7 +32857,7 @@
         <v>161</v>
       </c>
       <c r="B454" s="37" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C454" s="8"/>
       <c r="D454" s="8" t="s">
@@ -32815,7 +32866,7 @@
       <c r="E454" s="42"/>
       <c r="F454" s="13"/>
       <c r="G454" s="8" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H454" s="8"/>
       <c r="I454" s="9"/>
@@ -32840,7 +32891,7 @@
         <v>161</v>
       </c>
       <c r="B455" s="37" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="C455" s="8"/>
       <c r="D455" s="8" t="s">
@@ -32849,7 +32900,7 @@
       <c r="E455" s="42"/>
       <c r="F455" s="13"/>
       <c r="G455" s="8" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="H455" s="8"/>
       <c r="I455" s="9"/>
@@ -32874,7 +32925,7 @@
         <v>161</v>
       </c>
       <c r="B456" s="37" t="s">
-        <v>788</v>
+        <v>954</v>
       </c>
       <c r="C456" s="8"/>
       <c r="D456" s="8" t="s">
@@ -32883,7 +32934,7 @@
       <c r="E456" s="42"/>
       <c r="F456" s="13"/>
       <c r="G456" s="8" t="s">
-        <v>910</v>
+        <v>955</v>
       </c>
       <c r="H456" s="8"/>
       <c r="I456" s="9"/>
@@ -32908,7 +32959,7 @@
         <v>161</v>
       </c>
       <c r="B457" s="37" t="s">
-        <v>892</v>
+        <v>788</v>
       </c>
       <c r="C457" s="8"/>
       <c r="D457" s="8" t="s">
@@ -32917,7 +32968,7 @@
       <c r="E457" s="42"/>
       <c r="F457" s="13"/>
       <c r="G457" s="8" t="s">
-        <v>181</v>
+        <v>910</v>
       </c>
       <c r="H457" s="8"/>
       <c r="I457" s="9"/>
@@ -32939,10 +32990,10 @@
     </row>
     <row r="458" spans="1:24" ht="15">
       <c r="A458" s="37" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="B458" s="37" t="s">
-        <v>209</v>
+        <v>892</v>
       </c>
       <c r="C458" s="8"/>
       <c r="D458" s="8" t="s">
@@ -32951,9 +33002,9 @@
       <c r="E458" s="42"/>
       <c r="F458" s="13"/>
       <c r="G458" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="H458" s="38"/>
+        <v>181</v>
+      </c>
+      <c r="H458" s="8"/>
       <c r="I458" s="9"/>
       <c r="J458" s="10"/>
       <c r="K458" s="10"/>
@@ -32973,10 +33024,10 @@
     </row>
     <row r="459" spans="1:24" ht="15">
       <c r="A459" s="37" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="B459" s="37" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="C459" s="8"/>
       <c r="D459" s="8" t="s">
@@ -32985,7 +33036,7 @@
       <c r="E459" s="42"/>
       <c r="F459" s="13"/>
       <c r="G459" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H459" s="38"/>
       <c r="I459" s="9"/>
@@ -33010,7 +33061,7 @@
         <v>182</v>
       </c>
       <c r="B460" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C460" s="8"/>
       <c r="D460" s="8" t="s">
@@ -33019,7 +33070,7 @@
       <c r="E460" s="42"/>
       <c r="F460" s="13"/>
       <c r="G460" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H460" s="38"/>
       <c r="I460" s="9"/>
@@ -33044,7 +33095,7 @@
         <v>182</v>
       </c>
       <c r="B461" s="37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C461" s="8"/>
       <c r="D461" s="8" t="s">
@@ -33053,7 +33104,7 @@
       <c r="E461" s="42"/>
       <c r="F461" s="13"/>
       <c r="G461" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H461" s="38"/>
       <c r="I461" s="9"/>
@@ -33078,7 +33129,7 @@
         <v>182</v>
       </c>
       <c r="B462" s="37" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C462" s="8"/>
       <c r="D462" s="8" t="s">
@@ -33087,7 +33138,7 @@
       <c r="E462" s="42"/>
       <c r="F462" s="13"/>
       <c r="G462" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H462" s="38"/>
       <c r="I462" s="9"/>
@@ -33112,7 +33163,7 @@
         <v>182</v>
       </c>
       <c r="B463" s="37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C463" s="8"/>
       <c r="D463" s="8" t="s">
@@ -33121,7 +33172,7 @@
       <c r="E463" s="42"/>
       <c r="F463" s="13"/>
       <c r="G463" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H463" s="38"/>
       <c r="I463" s="9"/>
@@ -33146,7 +33197,7 @@
         <v>182</v>
       </c>
       <c r="B464" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C464" s="8"/>
       <c r="D464" s="8" t="s">
@@ -33155,7 +33206,7 @@
       <c r="E464" s="42"/>
       <c r="F464" s="13"/>
       <c r="G464" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H464" s="38"/>
       <c r="I464" s="9"/>
@@ -33180,7 +33231,7 @@
         <v>182</v>
       </c>
       <c r="B465" s="37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C465" s="8"/>
       <c r="D465" s="8" t="s">
@@ -33189,7 +33240,7 @@
       <c r="E465" s="42"/>
       <c r="F465" s="13"/>
       <c r="G465" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H465" s="38"/>
       <c r="I465" s="9"/>
@@ -33214,7 +33265,7 @@
         <v>182</v>
       </c>
       <c r="B466" s="37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C466" s="8"/>
       <c r="D466" s="8" t="s">
@@ -33223,7 +33274,7 @@
       <c r="E466" s="42"/>
       <c r="F466" s="13"/>
       <c r="G466" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H466" s="38"/>
       <c r="I466" s="9"/>
@@ -33248,7 +33299,7 @@
         <v>182</v>
       </c>
       <c r="B467" s="37" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="C467" s="8"/>
       <c r="D467" s="8" t="s">
@@ -33257,7 +33308,7 @@
       <c r="E467" s="42"/>
       <c r="F467" s="13"/>
       <c r="G467" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H467" s="38"/>
       <c r="I467" s="9"/>
@@ -33282,7 +33333,7 @@
         <v>182</v>
       </c>
       <c r="B468" s="37" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="C468" s="8"/>
       <c r="D468" s="8" t="s">
@@ -33291,7 +33342,7 @@
       <c r="E468" s="42"/>
       <c r="F468" s="13"/>
       <c r="G468" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H468" s="38"/>
       <c r="I468" s="9"/>
@@ -33313,10 +33364,10 @@
     </row>
     <row r="469" spans="1:24" ht="15">
       <c r="A469" s="37" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="B469" s="37" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="C469" s="8"/>
       <c r="D469" s="8" t="s">
@@ -33325,7 +33376,7 @@
       <c r="E469" s="42"/>
       <c r="F469" s="13"/>
       <c r="G469" s="8" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="H469" s="38"/>
       <c r="I469" s="9"/>
@@ -33350,7 +33401,7 @@
         <v>210</v>
       </c>
       <c r="B470" s="37" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C470" s="8"/>
       <c r="D470" s="8" t="s">
@@ -33359,7 +33410,7 @@
       <c r="E470" s="42"/>
       <c r="F470" s="13"/>
       <c r="G470" s="8" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="H470" s="38"/>
       <c r="I470" s="9"/>
@@ -33384,7 +33435,7 @@
         <v>210</v>
       </c>
       <c r="B471" s="37" t="s">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="C471" s="8"/>
       <c r="D471" s="8" t="s">
@@ -33393,7 +33444,7 @@
       <c r="E471" s="42"/>
       <c r="F471" s="13"/>
       <c r="G471" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H471" s="38"/>
       <c r="I471" s="9"/>
@@ -33418,7 +33469,7 @@
         <v>210</v>
       </c>
       <c r="B472" s="37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C472" s="8"/>
       <c r="D472" s="8" t="s">
@@ -33427,7 +33478,7 @@
       <c r="E472" s="42"/>
       <c r="F472" s="13"/>
       <c r="G472" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H472" s="38"/>
       <c r="I472" s="9"/>
@@ -33452,7 +33503,7 @@
         <v>210</v>
       </c>
       <c r="B473" s="37" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C473" s="8"/>
       <c r="D473" s="8" t="s">
@@ -33461,7 +33512,7 @@
       <c r="E473" s="42"/>
       <c r="F473" s="13"/>
       <c r="G473" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H473" s="38"/>
       <c r="I473" s="9"/>
@@ -33486,7 +33537,7 @@
         <v>210</v>
       </c>
       <c r="B474" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C474" s="8"/>
       <c r="D474" s="8" t="s">
@@ -33495,7 +33546,7 @@
       <c r="E474" s="42"/>
       <c r="F474" s="13"/>
       <c r="G474" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H474" s="38"/>
       <c r="I474" s="9"/>
@@ -33517,23 +33568,21 @@
     </row>
     <row r="475" spans="1:24" ht="15">
       <c r="A475" s="37" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B475" s="37" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C475" s="8"/>
       <c r="D475" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E475" s="13"/>
+      <c r="E475" s="42"/>
       <c r="F475" s="13"/>
       <c r="G475" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H475" s="8" t="s">
-        <v>231</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="H475" s="38"/>
       <c r="I475" s="9"/>
       <c r="J475" s="10"/>
       <c r="K475" s="10"/>
@@ -33552,11 +33601,11 @@
       <c r="X475" s="10"/>
     </row>
     <row r="476" spans="1:24" ht="15">
-      <c r="A476" s="12" t="s">
-        <v>915</v>
-      </c>
-      <c r="B476" s="12" t="s">
-        <v>913</v>
+      <c r="A476" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="B476" s="37" t="s">
+        <v>229</v>
       </c>
       <c r="C476" s="8"/>
       <c r="D476" s="8" t="s">
@@ -33564,11 +33613,11 @@
       </c>
       <c r="E476" s="13"/>
       <c r="F476" s="13"/>
-      <c r="G476" s="14" t="s">
-        <v>938</v>
-      </c>
-      <c r="H476" s="14" t="s">
-        <v>914</v>
+      <c r="G476" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H476" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="I476" s="9"/>
       <c r="J476" s="10"/>
@@ -33592,7 +33641,7 @@
         <v>915</v>
       </c>
       <c r="B477" s="12" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C477" s="8"/>
       <c r="D477" s="8" t="s">
@@ -33601,10 +33650,10 @@
       <c r="E477" s="13"/>
       <c r="F477" s="13"/>
       <c r="G477" s="14" t="s">
-        <v>919</v>
+        <v>938</v>
       </c>
       <c r="H477" s="14" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="I477" s="9"/>
       <c r="J477" s="10"/>
@@ -33628,7 +33677,7 @@
         <v>915</v>
       </c>
       <c r="B478" s="12" t="s">
-        <v>939</v>
+        <v>916</v>
       </c>
       <c r="C478" s="8"/>
       <c r="D478" s="8" t="s">
@@ -33637,10 +33686,10 @@
       <c r="E478" s="13"/>
       <c r="F478" s="13"/>
       <c r="G478" s="14" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H478" s="14" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="I478" s="9"/>
       <c r="J478" s="10"/>
@@ -33664,7 +33713,7 @@
         <v>915</v>
       </c>
       <c r="B479" s="12" t="s">
-        <v>917</v>
+        <v>939</v>
       </c>
       <c r="C479" s="8"/>
       <c r="D479" s="8" t="s">
@@ -33673,10 +33722,10 @@
       <c r="E479" s="13"/>
       <c r="F479" s="13"/>
       <c r="G479" s="14" t="s">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="H479" s="14" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I479" s="9"/>
       <c r="J479" s="10"/>
@@ -33700,7 +33749,7 @@
         <v>915</v>
       </c>
       <c r="B480" s="12" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C480" s="8"/>
       <c r="D480" s="8" t="s">
@@ -33709,10 +33758,10 @@
       <c r="E480" s="13"/>
       <c r="F480" s="13"/>
       <c r="G480" s="14" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H480" s="14" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I480" s="9"/>
       <c r="J480" s="10"/>
@@ -33736,7 +33785,7 @@
         <v>915</v>
       </c>
       <c r="B481" s="12" t="s">
-        <v>942</v>
+        <v>918</v>
       </c>
       <c r="C481" s="8"/>
       <c r="D481" s="8" t="s">
@@ -33745,10 +33794,10 @@
       <c r="E481" s="13"/>
       <c r="F481" s="13"/>
       <c r="G481" s="14" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H481" s="14" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I481" s="9"/>
       <c r="J481" s="10"/>
@@ -33768,11 +33817,11 @@
       <c r="X481" s="10"/>
     </row>
     <row r="482" spans="1:24" ht="15">
-      <c r="A482" s="40" t="s">
-        <v>937</v>
+      <c r="A482" s="12" t="s">
+        <v>915</v>
       </c>
       <c r="B482" s="12" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C482" s="8"/>
       <c r="D482" s="8" t="s">
@@ -33781,10 +33830,10 @@
       <c r="E482" s="13"/>
       <c r="F482" s="13"/>
       <c r="G482" s="14" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="H482" s="14" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="I482" s="9"/>
       <c r="J482" s="10"/>
@@ -33805,10 +33854,10 @@
     </row>
     <row r="483" spans="1:24" ht="15">
       <c r="A483" s="40" t="s">
-        <v>924</v>
+        <v>937</v>
       </c>
       <c r="B483" s="12" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C483" s="8"/>
       <c r="D483" s="8" t="s">
@@ -33817,10 +33866,10 @@
       <c r="E483" s="13"/>
       <c r="F483" s="13"/>
       <c r="G483" s="14" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H483" s="14" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="I483" s="9"/>
       <c r="J483" s="10"/>
@@ -33841,10 +33890,10 @@
     </row>
     <row r="484" spans="1:24" ht="15">
       <c r="A484" s="40" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B484" s="12" t="s">
-        <v>928</v>
+        <v>945</v>
       </c>
       <c r="C484" s="8"/>
       <c r="D484" s="8" t="s">
@@ -33853,10 +33902,10 @@
       <c r="E484" s="13"/>
       <c r="F484" s="13"/>
       <c r="G484" s="14" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="H484" s="14" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="I484" s="9"/>
       <c r="J484" s="10"/>
@@ -33880,7 +33929,7 @@
         <v>925</v>
       </c>
       <c r="B485" s="12" t="s">
-        <v>947</v>
+        <v>928</v>
       </c>
       <c r="C485" s="8"/>
       <c r="D485" s="8" t="s">
@@ -33889,10 +33938,10 @@
       <c r="E485" s="13"/>
       <c r="F485" s="13"/>
       <c r="G485" s="14" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H485" s="14" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I485" s="9"/>
       <c r="J485" s="10"/>
@@ -33916,7 +33965,7 @@
         <v>925</v>
       </c>
       <c r="B486" s="12" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C486" s="8"/>
       <c r="D486" s="8" t="s">
@@ -33925,10 +33974,10 @@
       <c r="E486" s="13"/>
       <c r="F486" s="13"/>
       <c r="G486" s="14" t="s">
-        <v>934</v>
+        <v>948</v>
       </c>
       <c r="H486" s="14" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I486" s="9"/>
       <c r="J486" s="10"/>
@@ -33949,10 +33998,10 @@
     </row>
     <row r="487" spans="1:24" ht="15">
       <c r="A487" s="40" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B487" s="12" t="s">
-        <v>928</v>
+        <v>949</v>
       </c>
       <c r="C487" s="8"/>
       <c r="D487" s="8" t="s">
@@ -33961,10 +34010,10 @@
       <c r="E487" s="13"/>
       <c r="F487" s="13"/>
       <c r="G487" s="14" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
       <c r="H487" s="14" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="I487" s="9"/>
       <c r="J487" s="10"/>
@@ -33988,7 +34037,7 @@
         <v>926</v>
       </c>
       <c r="B488" s="12" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C488" s="8"/>
       <c r="D488" s="8" t="s">
@@ -33997,10 +34046,10 @@
       <c r="E488" s="13"/>
       <c r="F488" s="13"/>
       <c r="G488" s="14" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H488" s="14" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I488" s="9"/>
       <c r="J488" s="10"/>
@@ -34024,7 +34073,7 @@
         <v>926</v>
       </c>
       <c r="B489" s="12" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C489" s="8"/>
       <c r="D489" s="8" t="s">
@@ -34033,10 +34082,10 @@
       <c r="E489" s="13"/>
       <c r="F489" s="13"/>
       <c r="G489" s="14" t="s">
-        <v>934</v>
+        <v>951</v>
       </c>
       <c r="H489" s="14" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I489" s="9"/>
       <c r="J489" s="10"/>
@@ -34057,10 +34106,10 @@
     </row>
     <row r="490" spans="1:24" ht="15">
       <c r="A490" s="40" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B490" s="12" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C490" s="8"/>
       <c r="D490" s="8" t="s">
@@ -34069,10 +34118,10 @@
       <c r="E490" s="13"/>
       <c r="F490" s="13"/>
       <c r="G490" s="14" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="H490" s="14" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="I490" s="9"/>
       <c r="J490" s="10"/>
@@ -34092,14 +34141,24 @@
       <c r="X490" s="10"/>
     </row>
     <row r="491" spans="1:24" ht="15">
-      <c r="A491" s="12"/>
-      <c r="B491" s="12"/>
+      <c r="A491" s="40" t="s">
+        <v>927</v>
+      </c>
+      <c r="B491" s="12" t="s">
+        <v>928</v>
+      </c>
       <c r="C491" s="8"/>
-      <c r="D491" s="8"/>
+      <c r="D491" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E491" s="13"/>
       <c r="F491" s="13"/>
-      <c r="G491" s="14"/>
-      <c r="H491" s="15"/>
+      <c r="G491" s="14" t="s">
+        <v>931</v>
+      </c>
+      <c r="H491" s="14" t="s">
+        <v>931</v>
+      </c>
       <c r="I491" s="9"/>
       <c r="J491" s="10"/>
       <c r="K491" s="10"/>
@@ -34117,88 +34176,114 @@
       <c r="W491" s="10"/>
       <c r="X491" s="10"/>
     </row>
-    <row r="492" spans="1:24">
-      <c r="A492" s="1" t="s">
+    <row r="492" spans="1:24" ht="15">
+      <c r="A492" s="12"/>
+      <c r="B492" s="12"/>
+      <c r="C492" s="8"/>
+      <c r="D492" s="8"/>
+      <c r="E492" s="13"/>
+      <c r="F492" s="13"/>
+      <c r="G492" s="14"/>
+      <c r="H492" s="15"/>
+      <c r="I492" s="9"/>
+      <c r="J492" s="10"/>
+      <c r="K492" s="10"/>
+      <c r="L492" s="10"/>
+      <c r="M492" s="10"/>
+      <c r="N492" s="10"/>
+      <c r="O492" s="10"/>
+      <c r="P492" s="10"/>
+      <c r="Q492" s="10"/>
+      <c r="R492" s="10"/>
+      <c r="S492" s="10"/>
+      <c r="T492" s="10"/>
+      <c r="U492" s="10"/>
+      <c r="V492" s="10"/>
+      <c r="W492" s="10"/>
+      <c r="X492" s="10"/>
+    </row>
+    <row r="493" spans="1:24">
+      <c r="A493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B492" s="1" t="s">
+      <c r="B493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C492" s="1" t="s">
+      <c r="C493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D492" s="1" t="s">
+      <c r="D493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E492" s="1" t="s">
+      <c r="E493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F492" s="1" t="s">
+      <c r="F493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G492" s="1" t="s">
+      <c r="G493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H492" s="1" t="s">
+      <c r="H493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I492" s="1" t="s">
+      <c r="I493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J492" s="1" t="s">
+      <c r="J493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K492" s="1" t="s">
+      <c r="K493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L492" s="1" t="s">
+      <c r="L493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M492" s="1" t="s">
+      <c r="M493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N492" s="1" t="s">
+      <c r="N493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O492" s="1" t="s">
+      <c r="O493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P492" s="1" t="s">
+      <c r="P493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q492" s="1" t="s">
+      <c r="Q493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R492" s="1" t="s">
+      <c r="R493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S492" s="1" t="s">
+      <c r="S493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T492" s="1" t="s">
+      <c r="T493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U492" s="1" t="s">
+      <c r="U493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V492" s="1" t="s">
+      <c r="V493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W492" s="1" t="s">
+      <c r="W493" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X492" s="1" t="s">
+      <c r="X493" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A5DCC26B-C60D-42D0-9CAD-BC67DFA2356B}">
+    <customSheetView guid="{031A89B7-34D4-4502-ABB1-60F92001A7ED}">
       <selection activeCell="A12" sqref="A12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{031A89B7-34D4-4502-ABB1-60F92001A7ED}">
+    <customSheetView guid="{A5DCC26B-C60D-42D0-9CAD-BC67DFA2356B}">
       <selection activeCell="A12" sqref="A12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -34279,170 +34364,186 @@
       <c r="F9" s="51"/>
     </row>
     <row r="10" spans="2:24" s="49" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="101" t="s">
         <v>1009</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99" t="s">
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101" t="s">
         <v>912</v>
       </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="100" t="s">
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="102" t="s">
         <v>1010</v>
       </c>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100" t="s">
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102" t="s">
         <v>1011</v>
       </c>
-      <c r="R10" s="100"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="100"/>
-      <c r="X10" s="100"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
     </row>
     <row r="11" spans="2:24" s="49" customFormat="1" ht="12.6" customHeight="1">
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="99" t="s">
         <v>1012</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101" t="s">
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99" t="s">
         <v>1013</v>
       </c>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="102"/>
-      <c r="W11" s="102"/>
-      <c r="X11" s="102"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="100"/>
+      <c r="U11" s="100"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="100"/>
+      <c r="X11" s="100"/>
     </row>
     <row r="12" spans="2:24" s="49" customFormat="1" ht="12.6" customHeight="1">
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="102"/>
-      <c r="S12" s="102"/>
-      <c r="T12" s="102"/>
-      <c r="U12" s="102"/>
-      <c r="V12" s="102"/>
-      <c r="W12" s="102"/>
-      <c r="X12" s="102"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="100"/>
+      <c r="T12" s="100"/>
+      <c r="U12" s="100"/>
+      <c r="V12" s="100"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="100"/>
     </row>
     <row r="13" spans="2:24" s="49" customFormat="1" ht="12.6" customHeight="1">
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102"/>
-      <c r="V13" s="102"/>
-      <c r="W13" s="102"/>
-      <c r="X13" s="102"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="100"/>
+      <c r="T13" s="100"/>
+      <c r="U13" s="100"/>
+      <c r="V13" s="100"/>
+      <c r="W13" s="100"/>
+      <c r="X13" s="100"/>
     </row>
     <row r="14" spans="2:24" s="49" customFormat="1" ht="12.6" customHeight="1">
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="102"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="102"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="102"/>
-      <c r="U14" s="102"/>
-      <c r="V14" s="102"/>
-      <c r="W14" s="102"/>
-      <c r="X14" s="102"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="100"/>
+      <c r="T14" s="100"/>
+      <c r="U14" s="100"/>
+      <c r="V14" s="100"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="100"/>
     </row>
     <row r="15" spans="2:24" s="49" customFormat="1" ht="12.6" customHeight="1">
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="102"/>
-      <c r="V15" s="102"/>
-      <c r="W15" s="102"/>
-      <c r="X15" s="102"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="100"/>
+      <c r="R15" s="100"/>
+      <c r="S15" s="100"/>
+      <c r="T15" s="100"/>
+      <c r="U15" s="100"/>
+      <c r="V15" s="100"/>
+      <c r="W15" s="100"/>
+      <c r="X15" s="100"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="24">
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="Q10:X10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:X11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="Q12:X12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:X13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="K14:P14"/>
@@ -34451,22 +34552,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="K15:P15"/>
     <mergeCell ref="Q15:X15"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="Q12:X12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:X13"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="Q10:X10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:X11"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
